--- a/biology/Botanique/Corydale/Corydale.xlsx
+++ b/biology/Botanique/Corydale/Corydale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les corydales sont des plantes herbacées annuelles ou vivaces. Elles appartiennent à des genres de la famille des Papaveraceae selon la classification phylogénétique (APGIII).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot corydale vient du grec ancien κορυδός (korudós) ou κορυδαλλός (korudallós), cette plante présentant un pétale supérieur en forme d'éperon qui ressemble à l'aigrette des alouettes (le mot grec ancien κορυδός signifie alouette huppée). 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont composées, la fleur possède deux lèvres avec un pétale supérieur muni d'un éperon qui lui donne un aspect allongé. Le fruit est une longue gousse.[réf. nécessaire]
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On en connaît près de 320 espèces principalement dans les régions tempérées de l'hémisphère nord, appartenant à plusieurs genres.
 </t>
@@ -604,7 +622,9 @@
           <t>Corydalis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Corydale à bulbe plein - Corydalis solida
 Corydale creuse - Corydalis cava
@@ -638,7 +658,9 @@
           <t>Pseudofumaria</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Corydale jaune - Pseudofumaria lutea
 Corydale jaunâtre - Pseudofumaria alba</t>
@@ -669,7 +691,9 @@
           <t>Ceratocapnos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydale à vrilles - Ceratocapnos claviculata
 Sur les autres projets Wikimedia :
